--- a/data/hotels_by_city/Houston/Houston_shard_444.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_444.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="334">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56010-d7236761-Reviews-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-La-Quinta-Inn-Suites-Houston-Humble-Atascocita.h9470541.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,878 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r603536911-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>7236761</t>
+  </si>
+  <si>
+    <t>603536911</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I stayed here for three nights and this place was very nice. The room and common areas were very clean. The staff that I interacted with was very nice and helpful. The continental breakfast was as expected. Not great but good enough if your on a budget. The only thing to complain about is the signage from the main entrance is very low and under an auto parts sign. Access to property driveway can only be made from one direction of flow of tragic.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>LQMinal, Operations Director at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded 3 days ago</t>
+  </si>
+  <si>
+    <t>Responded 3 days ago</t>
+  </si>
+  <si>
+    <t>I stayed here for three nights and this place was very nice. The room and common areas were very clean. The staff that I interacted with was very nice and helpful. The continental breakfast was as expected. Not great but good enough if your on a budget. The only thing to complain about is the signage from the main entrance is very low and under an auto parts sign. Access to property driveway can only be made from one direction of flow of tragic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r603030450-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>603030450</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>Clean, friendly, and a great place for pups!</t>
+  </si>
+  <si>
+    <t>We had a great experience at this location - it was clean, well-staffed, and friendly! Cheyenne was great at check-in. Justin and the rest of the front desk staff were excellent and friendly to work with. If you're in the area - it's a great place to stay with family and pets!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>LQMinal, Operations Director at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>We had a great experience at this location - it was clean, well-staffed, and friendly! Cheyenne was great at check-in. Justin and the rest of the front desk staff were excellent and friendly to work with. If you're in the area - it's a great place to stay with family and pets!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r601823007-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>601823007</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We were in town for a family reunion. We checked in really late after a 8hr road trip w/3 teenagers. Barbara was excellent! The hotel is very clean, located near lots off shipping &amp; good eats. We had a great stay! Highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>LQMinal, Operations Director at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>We were in town for a family reunion. We checked in really late after a 8hr road trip w/3 teenagers. Barbara was excellent! The hotel is very clean, located near lots off shipping &amp; good eats. We had a great stay! Highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r594266971-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>594266971</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Unacceptable</t>
+  </si>
+  <si>
+    <t>I chose to stay here because of its proximity to HMP Race track.  Not only is it difficult to get in and out of traffic wise the room was very uncomfortable.  Ac did not work very well, tub would not drain and the hot tub was not working to try and relax after driving 3hrs.MoreShow less</t>
+  </si>
+  <si>
+    <t>LQMinal, Operations Director at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I chose to stay here because of its proximity to HMP Race track.  Not only is it difficult to get in and out of traffic wise the room was very uncomfortable.  Ac did not work very well, tub would not drain and the hot tub was not working to try and relax after driving 3hrs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r590003300-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>590003300</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Close to everything you might need!!</t>
+  </si>
+  <si>
+    <t>It was very clean nice friendly staff pool was nice and breakfast was delicious. We ended up staying an extra night last minute glad we had a Walmart right next door and a Ross restaurants all around a great location.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>LQMinal, Guest Relations Manager at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2018</t>
+  </si>
+  <si>
+    <t>It was very clean nice friendly staff pool was nice and breakfast was delicious. We ended up staying an extra night last minute glad we had a Walmart right next door and a Ross restaurants all around a great location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r589723277-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>589723277</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Nice clean hotel</t>
+  </si>
+  <si>
+    <t>I was very happy with my stay at LaQuinta. The room was clean the staff friendly. It was easy to find from the airport and close to stores and food. Bathroom was clean and the room was large. Beds were comfortable and room was quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was very happy with my stay at LaQuinta. The room was clean the staff friendly. It was easy to find from the airport and close to stores and food. Bathroom was clean and the room was large. Beds were comfortable and room was quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r584454410-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>584454410</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Good new hotel in a strange spot .</t>
+  </si>
+  <si>
+    <t>nice 4 story hotel. Clean and comfortable and well maintained . There’s a hoppin bbq joint next door and plenty of other options to replenish your missing items if you are traveling through the area. I assume it’s popular for people traveling around the lousianna area or to do a overnight at for a flight at IAH. The location is a head scratcher. The entrance road is hidden along side a bank . Starbucks is close by for your morning coffee - but remember this is a full service la Quinta so they do offer breakfast - spa- pool( outside ) and small gym . I have stayed more than one at this location. It’s worth the money .MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>MP6268, Guest Relations Manager at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>nice 4 story hotel. Clean and comfortable and well maintained . There’s a hoppin bbq joint next door and plenty of other options to replenish your missing items if you are traveling through the area. I assume it’s popular for people traveling around the lousianna area or to do a overnight at for a flight at IAH. The location is a head scratcher. The entrance road is hidden along side a bank . Starbucks is close by for your morning coffee - but remember this is a full service la Quinta so they do offer breakfast - spa- pool( outside ) and small gym . I have stayed more than one at this location. It’s worth the money .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r580924562-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>580924562</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Not good</t>
+  </si>
+  <si>
+    <t>Not a good experience . Hotel TV did not work. They required us to check out early. They refused to give me a receipt.  when I tried to asked question about my check out time. The receptionist was short with me and not responsive. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>MP6268, Guest Relations Manager at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Not a good experience . Hotel TV did not work. They required us to check out early. They refused to give me a receipt.  when I tried to asked question about my check out time. The receptionist was short with me and not responsive. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r580962140-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>580962140</t>
+  </si>
+  <si>
+    <t>Awesome!</t>
+  </si>
+  <si>
+    <t>My stay was amazing! My room was so nice very clean. Loved that the room was fully stocked with towels and pillows on the bed. They even had fantastic shampoo and conditioner lol. The front desk clerk was very helpful and accommodating. Definitely coming backMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>MP6268, Manager at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded May 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2018</t>
+  </si>
+  <si>
+    <t>My stay was amazing! My room was so nice very clean. Loved that the room was fully stocked with towels and pillows on the bed. They even had fantastic shampoo and conditioner lol. The front desk clerk was very helpful and accommodating. Definitely coming backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r571467234-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>571467234</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>Unprofessional staff</t>
+  </si>
+  <si>
+    <t>There was an issue with the room the housekeeper left the room door open and when I got back late at night I found out that my room had been open all day long and when I went to complain nobody seemed to careMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>MP6268, Operations Director at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2018</t>
+  </si>
+  <si>
+    <t>There was an issue with the room the housekeeper left the room door open and when I got back late at night I found out that my room had been open all day long and when I went to complain nobody seemed to careMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r570762348-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>570762348</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Great price, large family suite, nice free breakfast and friendly staff. Hotel was very clean. Shower water was a little on the cooler side but not enough to complain. Pool was cold but hot tub was perfect. Definitely would recommend for families. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great price, large family suite, nice free breakfast and friendly staff. Hotel was very clean. Shower water was a little on the cooler side but not enough to complain. Pool was cold but hot tub was perfect. Definitely would recommend for families. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r554674186-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>554674186</t>
+  </si>
+  <si>
+    <t>01/18/2018</t>
+  </si>
+  <si>
+    <t>Perfect Location for Humble</t>
+  </si>
+  <si>
+    <t>This location is great for a stay in Humble. This appears to be a fairly new hotel and modern hotel. The staff is great, rooms were fresh and clean and they offered a nice selection for breakfast. it's also a dog friendly hotel and they offer a military discount. The hotel is located in a great location, close to shops, restaurants and retail stores. It is definitely our selection for a stay in Humble.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>LQ6337GM, Guest Relations Manager at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded January 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2018</t>
+  </si>
+  <si>
+    <t>This location is great for a stay in Humble. This appears to be a fairly new hotel and modern hotel. The staff is great, rooms were fresh and clean and they offered a nice selection for breakfast. it's also a dog friendly hotel and they offer a military discount. The hotel is located in a great location, close to shops, restaurants and retail stores. It is definitely our selection for a stay in Humble.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r524513057-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>524513057</t>
+  </si>
+  <si>
+    <t>09/14/2017</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Nice hotel with good service &amp; location.  Helpful cheerful staff.Room very large with nice furnishings including couch, desk, chair, table, tv &amp; lamps.  Modern shower with more than ample supply of towels &amp; toilerties. Micro &amp; refrigerator looked new &amp; worked well. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded September 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2017</t>
+  </si>
+  <si>
+    <t>Nice hotel with good service &amp; location.  Helpful cheerful staff.Room very large with nice furnishings including couch, desk, chair, table, tv &amp; lamps.  Modern shower with more than ample supply of towels &amp; toilerties. Micro &amp; refrigerator looked new &amp; worked well. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r520534896-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>520534896</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>Hotel management very UN-trained</t>
+  </si>
+  <si>
+    <t>The hotel management will not help you create a rewards account when you stay instead they will refer you to a 1-800 number and create multiple accounts under your name using one email causing you to be locked out of all. Very UNtrained staff, poor attitudes.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded September 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2017</t>
+  </si>
+  <si>
+    <t>The hotel management will not help you create a rewards account when you stay instead they will refer you to a 1-800 number and create multiple accounts under your name using one email causing you to be locked out of all. Very UNtrained staff, poor attitudes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r513415823-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>513415823</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Excellent return visit.</t>
+  </si>
+  <si>
+    <t>Everything perfect at this property. Thank you!! to the friendly, helpful front desk.Exceptionally clean property. Inside and out.Comfortable room...we had family suite.Lots of parking and well lit at night.Enjoyed our breakfast.Fast check out.Thanks! See you next time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r491658178-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>491658178</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>back again !</t>
+  </si>
+  <si>
+    <t>Back again for another delightful stay.  The entire staff at this hotel is friendly and helpful. The location is near great shopping and good food without having to use the interstate! already looking forward to my next visit.  Thank you LaQuinta!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r477960157-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>477960157</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>Checkin made me want to Checkout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did not feel welcomed during checkin. Clear difference between the service I received during checkin and the guest checking in before me. Excellent room- customer service could use some work. For the price, expected to feel welcomed, but the clerk checking me in made me feel otherwise. Very uncomfortable feeling to see another guest treated with a smile friendliness and patience, only to then yourself be treated as if you were some bum off the street. I'll choose a hotel with a crappy room but gives excellent customer service before giving my money to a business with an excellent room but lacks in the customer service department </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r491659266-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>491659266</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>A great hotel</t>
+  </si>
+  <si>
+    <t>Great hotel - good value and a really caring staff who went out of their way to be helpful &amp; efficient. The hotel is relatively new and everything is fresh and clean. They have a nice lounge/reception area where you can socialize with others.  The beds were super comfortable, but they are rather high off the ground.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r491657902-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>491657902</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Great Experience!</t>
+  </si>
+  <si>
+    <t>I have stayed at the Atascocita LaQuinta many times over the past year and every stay has been an excellent experience.  The location has easy access to the Kingwood and Humble areas.  This is a new hotel that is very nice looking inside and out.  The rooms are spacious with very comfortable beds.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r491658076-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>491658076</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Good room for Business stays</t>
+  </si>
+  <si>
+    <t>I am working on a long term project in the area, and the hotel is convenient location. There is decent food nearby, and the hotel staff keeps the place very clean. Rooms are bright. clean and efficient.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r491657348-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>491657348</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Friendly and clean</t>
+  </si>
+  <si>
+    <t>Location is very quiet and good maintained. Whirlpool is always ready. Staff is very friendly. In convenience distance from airport IAH. Many places for shopping close by. Lot's of Restaurants, some in walking distance.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r457771844-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>457771844</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Lipstick on a pig</t>
+  </si>
+  <si>
+    <t>My company keeps booking me with this chain and yet I keep running into issue after issue. I am going to request I book my own hotel reservations.So far strike three. Tines was set by a young inexperienced and cold receptionist. Didn't feel settled or safe when other guest were rowdy. Reminiscent of motel 8, hostel or halfway house with guest traversing halls in pajamas and Walmart bags for luggage.  Not where I want to be when my business have me on the road away from home 40 weeks a year. I am looking for a safe, clean, quiet and cozy facility that IS HOME for me while on the road. This is the first chain that I can say that has not measured up after three failed attempts to give it another shot. Lipstick on a pig is still a pig. I understand that chain must rebrand itself to be revitalised but this chain is failing. There are chains out there that have rebranded not just their logo but also their business model and have resurrected their  portfolios triple fold. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded February 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2017</t>
+  </si>
+  <si>
+    <t>My company keeps booking me with this chain and yet I keep running into issue after issue. I am going to request I book my own hotel reservations.So far strike three. Tines was set by a young inexperienced and cold receptionist. Didn't feel settled or safe when other guest were rowdy. Reminiscent of motel 8, hostel or halfway house with guest traversing halls in pajamas and Walmart bags for luggage.  Not where I want to be when my business have me on the road away from home 40 weeks a year. I am looking for a safe, clean, quiet and cozy facility that IS HOME for me while on the road. This is the first chain that I can say that has not measured up after three failed attempts to give it another shot. Lipstick on a pig is still a pig. I understand that chain must rebrand itself to be revitalised but this chain is failing. There are chains out there that have rebranded not just their logo but also their business model and have resurrected their  portfolios triple fold. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r491657559-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>491657559</t>
+  </si>
+  <si>
+    <t>12/31/2016</t>
+  </si>
+  <si>
+    <t>CHRISTMAS IN HUMBLE</t>
+  </si>
+  <si>
+    <t>Manager was professional and friendly to all patrons equally. Facility was clean and well maintained during the stay.  I always stay at this hotel in HUMBLE, TX.  Well located near many nice restaurants and shopping areas.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r424994655-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>424994655</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Nice job!!!</t>
+  </si>
+  <si>
+    <t>I stayed here on a trip to see my brother's and was very impressed. I work a gentleman who owns a holiday inn express best western and comfort inn. All Three are top hotel's in our area so when I stay someplace I tend to pick it apart. From check in to breakfast customer service here is spot on building and rooms spotless trust me I looked even under Hvac cover. Keep up the fantastic job!!!</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r405901018-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>405901018</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>LQ6337GM, Guest Relations Manager at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r402628055-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>402628055</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>Great stay and great location</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights while our son competed in the Jr. Olympics.  We had a king suite and it was very roomy for the 3 of us.  The bathroom was big and clean, with a huge shower- my husband is 6'4 and had lots of room.  The bed was very comfortable. For us one of the main bonuses was the air conditioning in our room. After sitting in 100 degree temps during the day, it was nice to come back to a cool room and relax.  The breakfast was okay.  The staff was very nice and helpful during our stay. And the location could not be beat- everything you need is within 5 minutes of the hotel, including a Wal-Mart across the street and plenty of restaurant choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights while our son competed in the Jr. Olympics.  We had a king suite and it was very roomy for the 3 of us.  The bathroom was big and clean, with a huge shower- my husband is 6'4 and had lots of room.  The bed was very comfortable. For us one of the main bonuses was the air conditioning in our room. After sitting in 100 degree temps during the day, it was nice to come back to a cool room and relax.  The breakfast was okay.  The staff was very nice and helpful during our stay. And the location could not be beat- everything you need is within 5 minutes of the hotel, including a Wal-Mart across the street and plenty of restaurant choices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r401090811-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>401090811</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Wouldn't stay again</t>
+  </si>
+  <si>
+    <t>We live in the area but due to our air conditioning bowing out during the peak of summer, we left our sweat lodge home for the cool escape of La Quinta. The place was very nicely decorated and our room seemed clean but, strangely, the bathroom smelled like dead fish. The next morning, I tried the complimentary hot breakfast of biscuit and gravy but the biscuits were cold, the gravy tasted like leftovers and the bacon was gross.  I took two bites of each and opted for a yogurt. With all that is available in the area, I wouldn't give this another chance.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r372731690-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>372731690</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>'Nice &amp; Quiet' Goes Downhill Quickly</t>
+  </si>
+  <si>
+    <t>This was a nice, quiet place with modern furnishings, but it did have lots of problems. Upon arrival, the room seemed clean EXCEPT for the floor. Obviously it had not been vacuumed cause there were M&amp;Ms and other dirt in the middle of the room! GROSS! Then we found out the washer was broken, and we were on a long road trip so had hoped to do laundry here. THEN... we had no housecleaning on day 2 of a 4-day stay. (We called when we returned to find this in early afternoon and told it said "cleaned" in the computer system. Doesn't MAKE it clean! Nothing done to fix this.) Since this place opened in December 2014, you'd think it would be in great condition building-wise -- WRONG!!! The general contractor obviously didn't do a very good job - so many things left unfinished, like corners (aka uncovered with strips like other corners), terrible drywall work in places, and just generally shoddy construction finishes everywhere. We had a king suite, which was a good size with great TV &amp; wifi, but I have never slept in a hotel room with such HIGH beds. I could barely climb in! Water pressure was AWFUL!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>LQ6337GM, General Manager at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2016</t>
+  </si>
+  <si>
+    <t>This was a nice, quiet place with modern furnishings, but it did have lots of problems. Upon arrival, the room seemed clean EXCEPT for the floor. Obviously it had not been vacuumed cause there were M&amp;Ms and other dirt in the middle of the room! GROSS! Then we found out the washer was broken, and we were on a long road trip so had hoped to do laundry here. THEN... we had no housecleaning on day 2 of a 4-day stay. (We called when we returned to find this in early afternoon and told it said "cleaned" in the computer system. Doesn't MAKE it clean! Nothing done to fix this.) Since this place opened in December 2014, you'd think it would be in great condition building-wise -- WRONG!!! The general contractor obviously didn't do a very good job - so many things left unfinished, like corners (aka uncovered with strips like other corners), terrible drywall work in places, and just generally shoddy construction finishes everywhere. We had a king suite, which was a good size with great TV &amp; wifi, but I have never slept in a hotel room with such HIGH beds. I could barely climb in! Water pressure was AWFUL!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r370001434-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>370001434</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>Such a disappointment.</t>
+  </si>
+  <si>
+    <t>Wanted to share our experience staying at this hotel. We visit Houston twice a year in order to be near family who live close by. We have stayed here on numerous occasions.  Our grandchildren stay with us in our room. We usually stay a week each visit. Our most recent visit was extremely disappointing. I will spare the readers all of the details of what went wrong. However, I wanted to point out to Hotel management that I assumed the hotel facilities including the lounge TV were meant for the guests of the hotel, not the husband/boyfriend of the front desk clerk who was "living" in the lobby during our entire stay. The husband/boyfriend and the front desk clerk were sharing food and he controlled the television, ALL DAY and ALL NIGHT LONG, During the Friday night of our stay this prevented the weekly hotel Friday night kids movie night from occurring. This used to be one of the highlights of our trip. We inquired as to when movie night would start and the clerk said "well I don't know how to turn on Netflix and he's watching something." Each night when we would visit the lounge we would change the TV from a channel that  was entirely inappropriate for a public area (i.e a graphic crime show) to something more appropriate and the husband/boyfriend would come out from his smoke break and say "I was watching something." 
+Every stay...Wanted to share our experience staying at this hotel. We visit Houston twice a year in order to be near family who live close by. We have stayed here on numerous occasions.  Our grandchildren stay with us in our room. We usually stay a week each visit. Our most recent visit was extremely disappointing. I will spare the readers all of the details of what went wrong. However, I wanted to point out to Hotel management that I assumed the hotel facilities including the lounge TV were meant for the guests of the hotel, not the husband/boyfriend of the front desk clerk who was "living" in the lobby during our entire stay. The husband/boyfriend and the front desk clerk were sharing food and he controlled the television, ALL DAY and ALL NIGHT LONG, During the Friday night of our stay this prevented the weekly hotel Friday night kids movie night from occurring. This used to be one of the highlights of our trip. We inquired as to when movie night would start and the clerk said "well I don't know how to turn on Netflix and he's watching something." Each night when we would visit the lounge we would change the TV from a channel that  was entirely inappropriate for a public area (i.e a graphic crime show) to something more appropriate and the husband/boyfriend would come out from his smoke break and say "I was watching something." Every stay prior to this has been excellent. However as most businesses know, your front line people can make or break you.Next trip we may shop around.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Wanted to share our experience staying at this hotel. We visit Houston twice a year in order to be near family who live close by. We have stayed here on numerous occasions.  Our grandchildren stay with us in our room. We usually stay a week each visit. Our most recent visit was extremely disappointing. I will spare the readers all of the details of what went wrong. However, I wanted to point out to Hotel management that I assumed the hotel facilities including the lounge TV were meant for the guests of the hotel, not the husband/boyfriend of the front desk clerk who was "living" in the lobby during our entire stay. The husband/boyfriend and the front desk clerk were sharing food and he controlled the television, ALL DAY and ALL NIGHT LONG, During the Friday night of our stay this prevented the weekly hotel Friday night kids movie night from occurring. This used to be one of the highlights of our trip. We inquired as to when movie night would start and the clerk said "well I don't know how to turn on Netflix and he's watching something." Each night when we would visit the lounge we would change the TV from a channel that  was entirely inappropriate for a public area (i.e a graphic crime show) to something more appropriate and the husband/boyfriend would come out from his smoke break and say "I was watching something." 
+Every stay...Wanted to share our experience staying at this hotel. We visit Houston twice a year in order to be near family who live close by. We have stayed here on numerous occasions.  Our grandchildren stay with us in our room. We usually stay a week each visit. Our most recent visit was extremely disappointing. I will spare the readers all of the details of what went wrong. However, I wanted to point out to Hotel management that I assumed the hotel facilities including the lounge TV were meant for the guests of the hotel, not the husband/boyfriend of the front desk clerk who was "living" in the lobby during our entire stay. The husband/boyfriend and the front desk clerk were sharing food and he controlled the television, ALL DAY and ALL NIGHT LONG, During the Friday night of our stay this prevented the weekly hotel Friday night kids movie night from occurring. This used to be one of the highlights of our trip. We inquired as to when movie night would start and the clerk said "well I don't know how to turn on Netflix and he's watching something." Each night when we would visit the lounge we would change the TV from a channel that  was entirely inappropriate for a public area (i.e a graphic crime show) to something more appropriate and the husband/boyfriend would come out from his smoke break and say "I was watching something." Every stay prior to this has been excellent. However as most businesses know, your front line people can make or break you.Next trip we may shop around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r359014109-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>359014109</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>New Hotel</t>
+  </si>
+  <si>
+    <t>Fairly new hotel in Atascocita-Humble, great staff, good location for my work.As I travel for business, I am in hotels for weeks at a time. I need to be able to work on my lap-top in my room and have fast internet and access to a printer. Printer is in office behind check-in counter and iPad will not connect to WiFi unless I am standing by the door to my room.Good stuff:Clean, big soft bed, lots of pillows, big TV, TONS of outlets.Now the bad:Weak WiFi in room, the smallest coffee cups ever, not the greatest "fit-and-finish" for the interior finishes. Shower door doesn't close all the way, battery in thermostat needs to be changed, warm but not hot water in the shower. Desk sits right in front of the ac/heat unit making you either frozen or melting, easily could have arranged the furniture to allow for better air flow.Spring in south-east Texas is possibly the best time of year to be outside, but they do not have any chairs or benches outside (except next to the pool).MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>LQ6337GM, General Manager at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded March 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2016</t>
+  </si>
+  <si>
+    <t>Fairly new hotel in Atascocita-Humble, great staff, good location for my work.As I travel for business, I am in hotels for weeks at a time. I need to be able to work on my lap-top in my room and have fast internet and access to a printer. Printer is in office behind check-in counter and iPad will not connect to WiFi unless I am standing by the door to my room.Good stuff:Clean, big soft bed, lots of pillows, big TV, TONS of outlets.Now the bad:Weak WiFi in room, the smallest coffee cups ever, not the greatest "fit-and-finish" for the interior finishes. Shower door doesn't close all the way, battery in thermostat needs to be changed, warm but not hot water in the shower. Desk sits right in front of the ac/heat unit making you either frozen or melting, easily could have arranged the furniture to allow for better air flow.Spring in south-east Texas is possibly the best time of year to be outside, but they do not have any chairs or benches outside (except next to the pool).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r341531575-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>341531575</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>Exceptional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a great place. Clean room and property , dog friendly, nice friendly staff,  actual breakfast  in the morning. If your staying in the area , stay here you will enjoy it. I wish all in the chain were managed as good as this one, the only thing that would make it better is if they had a cocktail lounge.  But there are more than a few restaurants and bars within driving or walking distance. </t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r341270292-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>341270292</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Surprise</t>
+  </si>
+  <si>
+    <t>I recently stayed here for business. After getting off work we checked into the hotel. We got our room keys and proceeded to our room. When I opened the door the room had a fresh clean smell. It was immaculate. The bed was very comfortable. If you are looking for rest this is the place to get it. I recommend this hotel for business stay. Continental breakfast is provided until 9am.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r338914276-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>338914276</t>
+  </si>
+  <si>
+    <t>01/10/2016</t>
+  </si>
+  <si>
+    <t>No problems,  the rooms were very clean, great breakfast, backs up to shopping area. Plenty of food options around.Friendly staff. Fitness center was clean, though no where to play music, front desk staff helpful and we enjoyed our stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r327679770-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>327679770</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>Stranded at airport found this hotel. Worth it!!!!!!!</t>
+  </si>
+  <si>
+    <t>Would have paid 200 a night to have gotten a room by the Houston Airport but they were booked so found this for $83 a night. The place is brand new! Wonderful beds, extremely clean and top notch! A Marriott wouldn't have been better I assure you.It's about 25-35 for a taxi because it is about 10 miles away. A great bbq rib restaurant is next door. It was so perfect for having a cancelled flight and stuck in Houston till the next day.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r290245604-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>290245604</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most horrible stay I've had in a hotel </t>
+  </si>
+  <si>
+    <t>My second day here the electricity went out...during this time the staff was rude this was around 2 pm &amp; it is 9 pm and the TVs are not working but lights are back on . I will never return to this hotel every again . beds are super uncomfortable !!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r283604460-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>283604460</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Very friendly staff, clean rooms</t>
+  </si>
+  <si>
+    <t>We attended our sons wedding this past weekend and had blocked a number of rooms for family and friends. The reservations were a confusing mess. Tika, the morning front desk person and I spend a considerable amount of time on the phone prior to our stay trying to get it straighted out, yet some reservations were still wrong. The room was clean and the hotel was clean. The free breakfast was ok at best. Waffles, some sort of precook end eggs, biscuits and gravy, cereal and toast. When visiting family I will probably be back.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r270600566-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>270600566</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>Will screw you over</t>
+  </si>
+  <si>
+    <t>When I arrived the front desk told me for 4 nights it would be 488 with a discount from where I work and they charged me over $600. Will never be staying at this resort ever! You would think they would tell you this before charging your card. This is facts not an opinion.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r269592110-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>269592110</t>
+  </si>
+  <si>
+    <t>05/02/2015</t>
+  </si>
+  <si>
+    <t>Poor service and not accommodating</t>
+  </si>
+  <si>
+    <t>We arrived with 19 people and we needed a crib which she rudely said they don't carry those, as well as a high chair to feed my daughter. The front desk attendant was very rude and talked on her cell phone which was on speaker phone the whole time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r265618911-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>265618911</t>
+  </si>
+  <si>
+    <t>04/14/2015</t>
+  </si>
+  <si>
+    <t>Eh</t>
+  </si>
+  <si>
+    <t>Wasn't too bad for the price. Stayed here because my a/c went out. The saf was kind of friendly but the desk girl had her boyfriend hanging out and he was being loud. Pretty clean hotel buyMy room door you had to slam shut. Also it had a weird smell to the hotel. The wifi was terribly slow. Haven't had the breakfast yet, that will be the determining factor on if I'll ever be back</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r249147379-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>249147379</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t>Warm and friendly</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel.  Clean, quite and comfortable.  The staff was extremely friendly.  The only thing is that the ding the elevator makes will scare you to death, it was very startling.  Enjoyed my stay and was able to relax and decompress.  I also love that La Quinta is a dog friendly hotel and try to stay there as often as possible for this reason.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r244976961-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>244976961</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t>Brand new!</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel. It just opened this month. So as you would expect everything is clean and fresh. The workout room is great and well equipped for a hotel this size. The pool area looks like it will be a nice retreat come warmer weather. It is right next to a pretty good barbecue place, Tin Roof. I guess since they don't have many guests yet they are not running the full breakfast. It was limited to the usual bread choices, three cereals (two full of sugar), instant oatmeal, bananas and apples, some weird tasting hardboiled eggs, yogurt and juice. They do have a waffle maker, but we were told a guest had broken it already. We found enough to eat, but they advertise having the LaQuinta breakfast and they don't, yet. Overall we had a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel. It just opened this month. So as you would expect everything is clean and fresh. The workout room is great and well equipped for a hotel this size. The pool area looks like it will be a nice retreat come warmer weather. It is right next to a pretty good barbecue place, Tin Roof. I guess since they don't have many guests yet they are not running the full breakfast. It was limited to the usual bread choices, three cereals (two full of sugar), instant oatmeal, bananas and apples, some weird tasting hardboiled eggs, yogurt and juice. They do have a waffle maker, but we were told a guest had broken it already. We found enough to eat, but they advertise having the LaQuinta breakfast and they don't, yet. Overall we had a great stay.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1413,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1445,2720 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>163</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>164</v>
+      </c>
+      <c r="X15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" t="s">
+        <v>175</v>
+      </c>
+      <c r="L17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>177</v>
+      </c>
+      <c r="O17" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" t="s">
+        <v>188</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>194</v>
+      </c>
+      <c r="O20" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s">
+        <v>199</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>210</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>211</v>
+      </c>
+      <c r="X23" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>215</v>
+      </c>
+      <c r="J24" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24" t="s">
+        <v>217</v>
+      </c>
+      <c r="L24" t="s">
+        <v>218</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>219</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>221</v>
+      </c>
+      <c r="J25" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" t="s">
+        <v>224</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>225</v>
+      </c>
+      <c r="O25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J26" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>230</v>
+      </c>
+      <c r="O26" t="s">
+        <v>113</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>231</v>
+      </c>
+      <c r="X26" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>239</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>231</v>
+      </c>
+      <c r="X27" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" t="s">
+        <v>249</v>
+      </c>
+      <c r="L29" t="s">
+        <v>250</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>251</v>
+      </c>
+      <c r="O29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>252</v>
+      </c>
+      <c r="X29" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>256</v>
+      </c>
+      <c r="J30" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" t="s">
+        <v>258</v>
+      </c>
+      <c r="L30" t="s">
+        <v>259</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>260</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>263</v>
+      </c>
+      <c r="J31" t="s">
+        <v>264</v>
+      </c>
+      <c r="K31" t="s">
+        <v>265</v>
+      </c>
+      <c r="L31" t="s">
+        <v>266</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>267</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>268</v>
+      </c>
+      <c r="X31" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s">
+        <v>275</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>276</v>
+      </c>
+      <c r="O32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>277</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>278</v>
+      </c>
+      <c r="J33" t="s">
+        <v>279</v>
+      </c>
+      <c r="K33" t="s">
+        <v>280</v>
+      </c>
+      <c r="L33" t="s">
+        <v>281</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>276</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>283</v>
+      </c>
+      <c r="J34" t="s">
+        <v>284</v>
+      </c>
+      <c r="K34" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" t="s">
+        <v>285</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>276</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>286</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J35" t="s">
+        <v>288</v>
+      </c>
+      <c r="K35" t="s">
+        <v>289</v>
+      </c>
+      <c r="L35" t="s">
+        <v>290</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>291</v>
+      </c>
+      <c r="O35" t="s">
+        <v>113</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>292</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>293</v>
+      </c>
+      <c r="J36" t="s">
+        <v>294</v>
+      </c>
+      <c r="K36" t="s">
+        <v>295</v>
+      </c>
+      <c r="L36" t="s">
+        <v>296</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>297</v>
+      </c>
+      <c r="O36" t="s">
+        <v>62</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>298</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>299</v>
+      </c>
+      <c r="J37" t="s">
+        <v>300</v>
+      </c>
+      <c r="K37" t="s">
+        <v>301</v>
+      </c>
+      <c r="L37" t="s">
+        <v>302</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>303</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>305</v>
+      </c>
+      <c r="J38" t="s">
+        <v>306</v>
+      </c>
+      <c r="K38" t="s">
+        <v>307</v>
+      </c>
+      <c r="L38" t="s">
+        <v>308</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>309</v>
+      </c>
+      <c r="O38" t="s">
+        <v>121</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>310</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>311</v>
+      </c>
+      <c r="J39" t="s">
+        <v>312</v>
+      </c>
+      <c r="K39" t="s">
+        <v>313</v>
+      </c>
+      <c r="L39" t="s">
+        <v>314</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>309</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>315</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>316</v>
+      </c>
+      <c r="J40" t="s">
+        <v>317</v>
+      </c>
+      <c r="K40" t="s">
+        <v>318</v>
+      </c>
+      <c r="L40" t="s">
+        <v>319</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>320</v>
+      </c>
+      <c r="O40" t="s">
+        <v>121</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>322</v>
+      </c>
+      <c r="J41" t="s">
+        <v>323</v>
+      </c>
+      <c r="K41" t="s">
+        <v>324</v>
+      </c>
+      <c r="L41" t="s">
+        <v>325</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>326</v>
+      </c>
+      <c r="O41" t="s">
+        <v>121</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>327</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>328</v>
+      </c>
+      <c r="J42" t="s">
+        <v>329</v>
+      </c>
+      <c r="K42" t="s">
+        <v>330</v>
+      </c>
+      <c r="L42" t="s">
+        <v>331</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>332</v>
+      </c>
+      <c r="O42" t="s">
+        <v>113</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_444.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_444.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="535">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,162 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r614753893-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>56010</t>
+  </si>
+  <si>
+    <t>7236761</t>
+  </si>
+  <si>
+    <t>614753893</t>
+  </si>
+  <si>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>Worth Money Paid</t>
+  </si>
+  <si>
+    <t>The hotel staff were very friendly and was well maintained. My family and I were very satisfied with the hotel. We were moving into another home and needed a place until ours was finished, that was pet friendly so we gave it a try. I would recommend to anyone.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r583727552-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>583727552</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Great Location and Friendly Service</t>
+  </si>
+  <si>
+    <t>I arrived in at the LaQuinta on May 25 and checked out on May 27.  I was visiting the area for a family member's high school graduation.  Check in was a breeze and the friendliness and attentiveness of the front clerk was highly appreciated.My room was comfortable and clean.  The furniture was modern and the lighting was excellent!  There was a large screen tv with dish network.  The tv had a clear, crisp picture!  The king sized bed was a little too high and soft for my liking, but that is not a complaint but a personal observation.  The bathroom was clean and well lit.  I enjoyed the walk in shower since I do not take baths at hotels and find stepping into tubs uncomfortable.  The fitness room was adequate although the room temperature was too warm! Continental breakfast was a minimum fare. I guess it was a true continental breakfast! Lady in charge of maintaining the breakfast was outgoing and responsive to requests.This LaQuinta is surrounded by great shopping and ample eateries!Would stay again if necessary!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>MP6268, Guest Relations Manager at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2018</t>
+  </si>
+  <si>
+    <t>I arrived in at the LaQuinta on May 25 and checked out on May 27.  I was visiting the area for a family member's high school graduation.  Check in was a breeze and the friendliness and attentiveness of the front clerk was highly appreciated.My room was comfortable and clean.  The furniture was modern and the lighting was excellent!  There was a large screen tv with dish network.  The tv had a clear, crisp picture!  The king sized bed was a little too high and soft for my liking, but that is not a complaint but a personal observation.  The bathroom was clean and well lit.  I enjoyed the walk in shower since I do not take baths at hotels and find stepping into tubs uncomfortable.  The fitness room was adequate although the room temperature was too warm! Continental breakfast was a minimum fare. I guess it was a true continental breakfast! Lady in charge of maintaining the breakfast was outgoing and responsive to requests.This LaQuinta is surrounded by great shopping and ample eateries!Would stay again if necessary!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r613842404-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>613842404</t>
+  </si>
+  <si>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>Great stay, great staff!</t>
+  </si>
+  <si>
+    <t>The hotel staff was very pleasant and helpful and checked my uncle and I in very quickly.  The staff was even so good as to call our room about 10 minutes after we checked in to make sure everything was satisfactory with our room.  The decor was lovely, the colors of the walls etc were very inviting and the room was very clean.  The hotel is located in a very convenient area (near the airport as well as near a huge variety of dining establishments and shopping options). The ONLY negative thing I have to say was that the continental breakfast (although stocked with many choices) was a bit of a let down.  The eggs &amp; sausages were cold even though they were kept in a warmer.  Other than that, there is nothing bad I can say about this hotel.  Our stay was excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>LQMinal, Operations Director at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded 3 days ago</t>
+  </si>
+  <si>
+    <t>Responded 3 days ago</t>
+  </si>
+  <si>
+    <t>The hotel staff was very pleasant and helpful and checked my uncle and I in very quickly.  The staff was even so good as to call our room about 10 minutes after we checked in to make sure everything was satisfactory with our room.  The decor was lovely, the colors of the walls etc were very inviting and the room was very clean.  The hotel is located in a very convenient area (near the airport as well as near a huge variety of dining establishments and shopping options). The ONLY negative thing I have to say was that the continental breakfast (although stocked with many choices) was a bit of a let down.  The eggs &amp; sausages were cold even though they were kept in a warmer.  Other than that, there is nothing bad I can say about this hotel.  Our stay was excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r612950245-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>612950245</t>
+  </si>
+  <si>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>Nice Place!</t>
+  </si>
+  <si>
+    <t>This is a super clean and nice place to stay for a quick visit. Wonderful front  desk service and it looks fairly new. Hotel is located in a great area &amp; close to many nice restaurants. Complementary breakfast was full service. We thoroughly enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>LQMinal, Operations Director at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded 6 days ago</t>
+  </si>
+  <si>
+    <t>Responded 6 days ago</t>
+  </si>
+  <si>
+    <t>This is a super clean and nice place to stay for a quick visit. Wonderful front  desk service and it looks fairly new. Hotel is located in a great area &amp; close to many nice restaurants. Complementary breakfast was full service. We thoroughly enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r606842235-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>606842235</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>Quick trip to our old neighborhood</t>
+  </si>
+  <si>
+    <t>We knew tgere was a new La QUINTA in our old neighborhood but never needed to stay until we made a quick trip to return our grandson. Very modern, clean, friendly staff.  Close to everywhere we needed to be.MoreShow less</t>
+  </si>
+  <si>
+    <t>LQMinal, Operations Director at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>We knew tgere was a new La QUINTA in our old neighborhood but never needed to stay until we made a quick trip to return our grandson. Very modern, clean, friendly staff.  Close to everywhere we needed to be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r604827507-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>604827507</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>Nosedive since last review</t>
+  </si>
+  <si>
+    <t>The facility is wearing out and fast. There are odd smells everywhere (note multiple plug in air fresheners in each hallway) and the new staff is untrained and seemingly detached from client needs.. it is a shame.  MoreShow less</t>
+  </si>
+  <si>
+    <t>LQMinal, Operations Director at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>The facility is wearing out and fast. There are odd smells everywhere (note multiple plug in air fresheners in each hallway) and the new staff is untrained and seemingly detached from client needs.. it is a shame.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r603536911-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
-    <t>56010</t>
-  </si>
-  <si>
-    <t>7236761</t>
-  </si>
-  <si>
     <t>603536911</t>
   </si>
   <si>
@@ -174,18 +318,9 @@
     <t>I stayed here for three nights and this place was very nice. The room and common areas were very clean. The staff that I interacted with was very nice and helpful. The continental breakfast was as expected. Not great but good enough if your on a budget. The only thing to complain about is the signage from the main entrance is very low and under an auto parts sign. Access to property driveway can only be made from one direction of flow of tragic.MoreShow less</t>
   </si>
   <si>
-    <t>August 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>LQMinal, Operations Director at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded 3 days ago</t>
-  </si>
-  <si>
-    <t>Responded 3 days ago</t>
-  </si>
-  <si>
     <t>I stayed here for three nights and this place was very nice. The room and common areas were very clean. The staff that I interacted with was very nice and helpful. The continental breakfast was as expected. Not great but good enough if your on a budget. The only thing to complain about is the signage from the main entrance is very low and under an auto parts sign. Access to property driveway can only be made from one direction of flow of tragic.More</t>
   </si>
   <si>
@@ -204,15 +339,6 @@
     <t>We had a great experience at this location - it was clean, well-staffed, and friendly! Cheyenne was great at check-in. Justin and the rest of the front desk staff were excellent and friendly to work with. If you're in the area - it's a great place to stay with family and pets!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>LQMinal, Operations Director at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded 5 days ago</t>
-  </si>
-  <si>
-    <t>Responded 5 days ago</t>
-  </si>
-  <si>
     <t>We had a great experience at this location - it was clean, well-staffed, and friendly! Cheyenne was great at check-in. Justin and the rest of the front desk staff were excellent and friendly to work with. If you're in the area - it's a great place to stay with family and pets!More</t>
   </si>
   <si>
@@ -234,15 +360,63 @@
     <t>July 2018</t>
   </si>
   <si>
-    <t>LQMinal, Operations Director at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>LQMinal, Operations Director at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded August 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2018</t>
   </si>
   <si>
     <t>We were in town for a family reunion. We checked in really late after a 8hr road trip w/3 teenagers. Barbara was excellent! The hotel is very clean, located near lots off shipping &amp; good eats. We had a great stay! Highly recommend!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r601340518-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>601340518</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>Would recommend to anyone traveling through the area-very close to IAH,  shopping in Atascocita and Humble, close to restaurants. Easy in and out. The staff were very friendly and accommodating. Well maintained.MoreShow less</t>
+  </si>
+  <si>
+    <t>LQMinal, Operations Director at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded August 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2018</t>
+  </si>
+  <si>
+    <t>Would recommend to anyone traveling through the area-very close to IAH,  shopping in Atascocita and Humble, close to restaurants. Easy in and out. The staff were very friendly and accommodating. Well maintained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r598306639-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>598306639</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>Enjoyable Stay</t>
+  </si>
+  <si>
+    <t>Very nice room! One major thing. The tap water was great for showering! You might find this comment strange, however, if you have ever been to Houston you will understand. Houston has soft water. When you shower in soft water you still feel like you have soap on your skin after rinsing the soap off--terrible feeling. Apparently, this motel did not source Houston water. Water was what I call normal. Breakfast was okay. Close to lots of restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>LQMinal, Guest Relations Manager at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Very nice room! One major thing. The tap water was great for showering! You might find this comment strange, however, if you have ever been to Houston you will understand. Houston has soft water. When you shower in soft water you still feel like you have soap on your skin after rinsing the soap off--terrible feeling. Apparently, this motel did not source Houston water. Water was what I call normal. Breakfast was okay. Close to lots of restaurants.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r594266971-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -258,10 +432,10 @@
     <t>I chose to stay here because of its proximity to HMP Race track.  Not only is it difficult to get in and out of traffic wise the room was very uncomfortable.  Ac did not work very well, tub would not drain and the hot tub was not working to try and relax after driving 3hrs.MoreShow less</t>
   </si>
   <si>
-    <t>LQMinal, Operations Director at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>LQMinal, Operations Director at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded July 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2018</t>
   </si>
   <si>
     <t>I chose to stay here because of its proximity to HMP Race track.  Not only is it difficult to get in and out of traffic wise the room was very uncomfortable.  Ac did not work very well, tub would not drain and the hot tub was not working to try and relax after driving 3hrs.More</t>
@@ -312,6 +486,48 @@
     <t>I was very happy with my stay at LaQuinta. The room was clean the staff friendly. It was easy to find from the airport and close to stores and food. Bathroom was clean and the room was large. Beds were comfortable and room was quiet.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r587146438-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>587146438</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Always great!!!</t>
+  </si>
+  <si>
+    <t>Always a great experience. Customer service is amazing. The rooms are so clean and comfortable. The location is awesome, quiet but close to shops and restaurants. Love everything about this place and can't wait to stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>LQMinal, Guest Relations Manager at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded June 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2018</t>
+  </si>
+  <si>
+    <t>Always a great experience. Customer service is amazing. The rooms are so clean and comfortable. The location is awesome, quiet but close to shops and restaurants. Love everything about this place and can't wait to stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r586843520-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>586843520</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>quiet place, nice shower</t>
+  </si>
+  <si>
+    <t>The location of this hotel is perfect. It is a quiet place with lots of quality stores around for necessities and groceries. I love those walk-in showers with glass doors. The only thing I missed was a window that would open.MoreShow less</t>
+  </si>
+  <si>
+    <t>The location of this hotel is perfect. It is a quiet place with lots of quality stores around for necessities and groceries. I love those walk-in showers with glass doors. The only thing I missed was a window that would open.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r584454410-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -354,9 +570,6 @@
     <t>Not a good experience . Hotel TV did not work. They required us to check out early. They refused to give me a receipt.  when I tried to asked question about my check out time. The receptionist was short with me and not responsive. MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
@@ -393,6 +606,51 @@
     <t>My stay was amazing! My room was so nice very clean. Loved that the room was fully stocked with towels and pillows on the bed. They even had fantastic shampoo and conditioner lol. The front desk clerk was very helpful and accommodating. Definitely coming backMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r577627721-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>577627721</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>MP6268, Guest Relations Manager at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded May 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r577293544-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>577293544</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Stay at LaQuinta</t>
+  </si>
+  <si>
+    <t>They stay here was ok. I have stayed here once before and the guest service was a lot nicer. When I arrived it took awhile for someone to come to the desk. The guy at the desk was not the friendliest person at all. Seemed like he didn't want to be bothered. The bed sheets and the pillows were rough. Not comfortable at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>MP6268, Guest Relations Manager at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2018</t>
+  </si>
+  <si>
+    <t>They stay here was ok. I have stayed here once before and the guest service was a lot nicer. When I arrived it took awhile for someone to come to the desk. The guy at the desk was not the friendliest person at all. Seemed like he didn't want to be bothered. The bed sheets and the pillows were rough. Not comfortable at all.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r571467234-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -465,6 +723,36 @@
     <t>This location is great for a stay in Humble. This appears to be a fairly new hotel and modern hotel. The staff is great, rooms were fresh and clean and they offered a nice selection for breakfast. it's also a dog friendly hotel and they offer a military discount. The hotel is located in a great location, close to shops, restaurants and retail stores. It is definitely our selection for a stay in Humble.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r541115283-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>541115283</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r531879992-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>531879992</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Dog-friendly, nice rooms, good price</t>
+  </si>
+  <si>
+    <t>We were in town for a dog show.  I found the property to look very nice, our room had plenty of space and was decorated nicely with a comfortable bed.  This property is a good value and a hot breakfast is nice too.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r524513057-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -534,6 +822,39 @@
     <t>Everything perfect at this property. Thank you!! to the friendly, helpful front desk.Exceptionally clean property. Inside and out.Comfortable room...we had family suite.Lots of parking and well lit at night.Enjoyed our breakfast.Fast check out.Thanks! See you next time.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r509972437-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>509972437</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Staff is inconsiderate</t>
+  </si>
+  <si>
+    <t>For Sunday morning we were told that breakfast ended at 11 am. We went down at 10:30 am only to find that everything had been put away. The only thing they could tell us was sorry. So my kids were hungry. We had to go back up and get ready to go eat at a restaurant. This was not a good deal.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r506047933-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>506047933</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Wonderful Accommodation</t>
+  </si>
+  <si>
+    <t>I love the larger suites.   I stayed on business and didn't feel confined. The hotel was well kept and quiet. I never lost any sleep over other guest's activities. I will stay at La Quinta again.  I would like to have seen more fruit  at breakfast but overall my experience was a good one.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r491658178-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -585,6 +906,39 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r491659089-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>491659089</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t>The pillows in this hotel are terrible!!!  So uncomfortable!  NONE of the drink machines or ice makers worked.  We were insanely thirsty and had to drink the NASTY sink water.  To top that off, our room was hot and we were miservable.  I recommend the Holiday Inn on 1960.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r491657914-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>491657914</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>The hotel is clean, modern, and well equipped.  Staff were friendly and professional.  Enjoyed the breakfast.  This is an excellent value for the price.  It is a little confusing to find the driveway to the hotel and the surroundings are not particularly attractive.  But once inside it is first rate.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r491657902-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -600,9 +954,6 @@
     <t>I have stayed at the Atascocita LaQuinta many times over the past year and every stay has been an excellent experience.  The location has easy access to the Kingwood and Humble areas.  This is a new hotel that is very nice looking inside and out.  The rooms are spacious with very comfortable beds.</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r491658076-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -633,6 +984,42 @@
     <t>Location is very quiet and good maintained. Whirlpool is always ready. Staff is very friendly. In convenience distance from airport IAH. Many places for shopping close by. Lot's of Restaurants, some in walking distance.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r491657771-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>491657771</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Clean and Honest</t>
+  </si>
+  <si>
+    <t>Our stay was very short but very comfortable. Rooms were clean and beds were comfortable. Staff was polite and very nice. I left my watch on sink and called hours after we had left for a flight. The staff was able to find the watch and mail to my home. It was packaged safely and waiting on my arrival.  I would recommend to all.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r491657847-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>491657847</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>Excellent Experience</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a soccer tournament. Even though it was February, the outdoor pool was open. That was a treat. We arrived early and the front desk clerk got our room ready for us as soon as possible. The lobby was impeccable, and I love the wood floors in the lobby and in the rooms. The only advice I would have for someone staying is to ensure you get a room with a thermostat on the wall. Ours had a window unit and the temperature could not be set lower than 67. I didn't report the problem because I knew there were no more rooms available. I inquired about it at checkout. We actually stayed for an extra night. Very helpful and polite staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a soccer tournament. Even though it was February, the outdoor pool was open. That was a treat. We arrived early and the front desk clerk got our room ready for us as soon as possible. The lobby was impeccable, and I love the wood floors in the lobby and in the rooms. The only advice I would have for someone staying is to ensure you get a room with a thermostat on the wall. Ours had a window unit and the temperature could not be set lower than 67. I didn't report the problem because I knew there were no more rooms available. I inquired about it at checkout. We actually stayed for an extra night. Very helpful and polite staff.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r457771844-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -648,9 +1035,6 @@
     <t>My company keeps booking me with this chain and yet I keep running into issue after issue. I am going to request I book my own hotel reservations.So far strike three. Tines was set by a young inexperienced and cold receptionist. Didn't feel settled or safe when other guest were rowdy. Reminiscent of motel 8, hostel or halfway house with guest traversing halls in pajamas and Walmart bags for luggage.  Not where I want to be when my business have me on the road away from home 40 weeks a year. I am looking for a safe, clean, quiet and cozy facility that IS HOME for me while on the road. This is the first chain that I can say that has not measured up after three failed attempts to give it another shot. Lipstick on a pig is still a pig. I understand that chain must rebrand itself to be revitalised but this chain is failing. There are chains out there that have rebranded not just their logo but also their business model and have resurrected their  portfolios triple fold. MoreShow less</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
     <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded February 15, 2017</t>
   </si>
   <si>
@@ -696,6 +1080,45 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r417210613-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>417210613</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>I would have rated this property excellent....</t>
+  </si>
+  <si>
+    <t>but front desk girl checked us in, gave us key, but when we got to our room, it had definitely NOT been cleaned since the previous guests left.The housekeeper was working as fast as she possibly could, but I guess there was some miscommunication with front desk.Housekeeper did a fast and excellent job of getting our room ready while we waited.Room was very quiet, comfy. Would definitely stay here again if in the area.The hotel (and driveway) is a little tricky to see from the street....hotel is behind an AdvancedAuto Parts and the hotel sign is rather small.Breakfast was great, area clean, and lots of tables.Lots of nearby shopping. and there is a BBQ joint right next door.Good lighting in the parking lot at night and a large area to walk our dog. Also fast WIFI.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>but front desk girl checked us in, gave us key, but when we got to our room, it had definitely NOT been cleaned since the previous guests left.The housekeeper was working as fast as she possibly could, but I guess there was some miscommunication with front desk.Housekeeper did a fast and excellent job of getting our room ready while we waited.Room was very quiet, comfy. Would definitely stay here again if in the area.The hotel (and driveway) is a little tricky to see from the street....hotel is behind an AdvancedAuto Parts and the hotel sign is rather small.Breakfast was great, area clean, and lots of tables.Lots of nearby shopping. and there is a BBQ joint right next door.Good lighting in the parking lot at night and a large area to walk our dog. Also fast WIFI.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r410004078-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>410004078</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Great stay!!</t>
+  </si>
+  <si>
+    <t>My kids from Illinois came to visit last weekend and due to some remodeling we needed to put them in a hotel. We picked the LaQui at because of location first. It has anything you would need within walking. But the good part was the friendly front desk, the clean modern design and comfortable bed made this a winner!!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r405901018-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -705,21 +1128,12 @@
     <t>08/15/2016</t>
   </si>
   <si>
-    <t>MoreShow less</t>
-  </si>
-  <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>LQ6337GM, Guest Relations Manager at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded August 23, 2016</t>
   </si>
   <si>
     <t>Responded August 23, 2016</t>
   </si>
   <si>
-    <t>More</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r402628055-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -754,6 +1168,48 @@
   </si>
   <si>
     <t>We live in the area but due to our air conditioning bowing out during the peak of summer, we left our sweat lodge home for the cool escape of La Quinta. The place was very nicely decorated and our room seemed clean but, strangely, the bathroom smelled like dead fish. The next morning, I tried the complimentary hot breakfast of biscuit and gravy but the biscuits were cold, the gravy tasted like leftovers and the bacon was gross.  I took two bites of each and opted for a yogurt. With all that is available in the area, I wouldn't give this another chance.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r395617122-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>395617122</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>We stayed one night and everything was fine.  The room was nice and the  bed was comfortable.  We didn't use it but was nice having a fridge &amp; microwave in the room.  I did use the Wi-Fi, had no problems logging on to it. I appreciate it being a non-smoking hotel.  The breakfast was very good and convenient.  We would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r384427732-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>384427732</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Rooms Smell Bad</t>
+  </si>
+  <si>
+    <t>I have stayed several times over the last year, and it gets worse and worse.  They are not cleaning the rooms very well, and they are starting to stink.  My closed smelled like the room days after the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, Guest Relations Manager at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded June 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed several times over the last year, and it gets worse and worse.  They are not cleaning the rooms very well, and they are starting to stink.  My closed smelled like the room days after the stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r372731690-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
@@ -833,6 +1289,72 @@
     <t>Fairly new hotel in Atascocita-Humble, great staff, good location for my work.As I travel for business, I am in hotels for weeks at a time. I need to be able to work on my lap-top in my room and have fast internet and access to a printer. Printer is in office behind check-in counter and iPad will not connect to WiFi unless I am standing by the door to my room.Good stuff:Clean, big soft bed, lots of pillows, big TV, TONS of outlets.Now the bad:Weak WiFi in room, the smallest coffee cups ever, not the greatest "fit-and-finish" for the interior finishes. Shower door doesn't close all the way, battery in thermostat needs to be changed, warm but not hot water in the shower. Desk sits right in front of the ac/heat unit making you either frozen or melting, easily could have arranged the furniture to allow for better air flow.Spring in south-east Texas is possibly the best time of year to be outside, but they do not have any chairs or benches outside (except next to the pool).More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r358250007-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>358250007</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Family Friendly</t>
+  </si>
+  <si>
+    <t>Where should I begin with my review for this wonderful hotel? I have stayed at several hotels, but La Quinta in Atatscocita, TX is by far the best I have ever stayed in. The decor was gorgeous, modern and very impressive. The staff makes you feel right at home and the rooms are large, beautiful and have the most comfortable beds. A full hot breakfast was delicious and included in our stay. I was also very happy to know that they are a pet friendly hotel since other hotels don't seem to offer this service. I highly recommend to anyone you stay here, you will be pleased.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>LQ6337GM, General Manager at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Where should I begin with my review for this wonderful hotel? I have stayed at several hotels, but La Quinta in Atatscocita, TX is by far the best I have ever stayed in. The decor was gorgeous, modern and very impressive. The staff makes you feel right at home and the rooms are large, beautiful and have the most comfortable beds. A full hot breakfast was delicious and included in our stay. I was also very happy to know that they are a pet friendly hotel since other hotels don't seem to offer this service. I highly recommend to anyone you stay here, you will be pleased.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r344896190-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>344896190</t>
+  </si>
+  <si>
+    <t>02/03/2016</t>
+  </si>
+  <si>
+    <t>An Over Extended Stay With 3 Small Dogs but you'd never know it based on how extremely well "My Family" was Treated!!!</t>
+  </si>
+  <si>
+    <t>On January 21, 2016 I had told my cousin that I wanted to get a Hotel to be alone because it was the 7 month "Angelversary" of My Husband's Death (Father's Day 2015) 
+Needless to say came My need for ......A room at LaQuinta with My 3 Fury Friends, Panda Renee Lynn, Harley Girl (Aka) Our Son Travis Re~incarnated and Little 3.5 Kipper Doodle (He thinks he is more like 35.5 cause he tries to bite my butt each time I get out of the car as he is barking up a storm at me) 
+I couldn't believe how nice the EMPLOYEE'S treated us the entire 2 weeks we stayed and My Dogs were so "WELL BEHAVED" (I'm sure someone traded them for someone else dogs)...lol 
+Daily Breakfast M~F is from 6am-9am and Sat~ Sun hours are 7am~ 10am and consisted of: Biscuits and Gravy, Oatmeal, Waffles,Yogurt, Cereal, Eggs, Toast, Bagels, Muffins,  Orange Juice, Apple Juice Coffee, Tea, Milk, 
+Loved that it is in Walmart's backyard, Kohls, Office Depot, Petco, Kroger, Several Mexican Restaurants to choose from, Uberrito is Fantastic reminds me of a Subway, Sonic, Lowes, 
+Outdoor Pool, My room was comfortable with a Mini Fridge, and Microwave, Dish Network with HBO, Area to walk your Dogs as well as Waste Bags to Clean up after them, 
+The General Manager Mehul Patel along with Employees Kristen, NiNi, &amp; Carla are the main ones I dealt with for the majority...On January 21, 2016 I had told my cousin that I wanted to get a Hotel to be alone because it was the 7 month "Angelversary" of My Husband's Death (Father's Day 2015) Needless to say came My need for ......A room at LaQuinta with My 3 Fury Friends, Panda Renee Lynn, Harley Girl (Aka) Our Son Travis Re~incarnated and Little 3.5 Kipper Doodle (He thinks he is more like 35.5 cause he tries to bite my butt each time I get out of the car as he is barking up a storm at me) I couldn't believe how nice the EMPLOYEE'S treated us the entire 2 weeks we stayed and My Dogs were so "WELL BEHAVED" (I'm sure someone traded them for someone else dogs)...lol Daily Breakfast M~F is from 6am-9am and Sat~ Sun hours are 7am~ 10am and consisted of: Biscuits and Gravy, Oatmeal, Waffles,Yogurt, Cereal, Eggs, Toast, Bagels, Muffins,  Orange Juice, Apple Juice Coffee, Tea, Milk, Loved that it is in Walmart's backyard, Kohls, Office Depot, Petco, Kroger, Several Mexican Restaurants to choose from, Uberrito is Fantastic reminds me of a Subway, Sonic, Lowes, Outdoor Pool, My room was comfortable with a Mini Fridge, and Microwave, Dish Network with HBO, Area to walk your Dogs as well as Waste Bags to Clean up after them, The General Manager Mehul Patel along with Employees Kristen, NiNi, &amp; Carla are the main ones I dealt with for the majority of My stay, I honestly cannot say enough "Good Things" about how wonderful I was treated by each and every one of them....even having 3 Small Dogs traveling with me and the best part of all to Me.....NO PER PET FEE....Some places close to here charge a $200 per pet "Non refundable Pet Cleaning fee" which is totally Ridiculous if you ask ME especially considering I CLEAN UP after MY PETS... I would ABSOLUTELY Recommend this Hotel if you are ever in Atascocita/Humble Texas near Fm 1960 E and Atascocita RoadMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>LQ6337GM, General Manager at La Quinta Inn &amp; Suites Houston Humble Atascocita, responded to this reviewResponded March 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2016</t>
+  </si>
+  <si>
+    <t>On January 21, 2016 I had told my cousin that I wanted to get a Hotel to be alone because it was the 7 month "Angelversary" of My Husband's Death (Father's Day 2015) 
+Needless to say came My need for ......A room at LaQuinta with My 3 Fury Friends, Panda Renee Lynn, Harley Girl (Aka) Our Son Travis Re~incarnated and Little 3.5 Kipper Doodle (He thinks he is more like 35.5 cause he tries to bite my butt each time I get out of the car as he is barking up a storm at me) 
+I couldn't believe how nice the EMPLOYEE'S treated us the entire 2 weeks we stayed and My Dogs were so "WELL BEHAVED" (I'm sure someone traded them for someone else dogs)...lol 
+Daily Breakfast M~F is from 6am-9am and Sat~ Sun hours are 7am~ 10am and consisted of: Biscuits and Gravy, Oatmeal, Waffles,Yogurt, Cereal, Eggs, Toast, Bagels, Muffins,  Orange Juice, Apple Juice Coffee, Tea, Milk, 
+Loved that it is in Walmart's backyard, Kohls, Office Depot, Petco, Kroger, Several Mexican Restaurants to choose from, Uberrito is Fantastic reminds me of a Subway, Sonic, Lowes, 
+Outdoor Pool, My room was comfortable with a Mini Fridge, and Microwave, Dish Network with HBO, Area to walk your Dogs as well as Waste Bags to Clean up after them, 
+The General Manager Mehul Patel along with Employees Kristen, NiNi, &amp; Carla are the main ones I dealt with for the majority...On January 21, 2016 I had told my cousin that I wanted to get a Hotel to be alone because it was the 7 month "Angelversary" of My Husband's Death (Father's Day 2015) Needless to say came My need for ......A room at LaQuinta with My 3 Fury Friends, Panda Renee Lynn, Harley Girl (Aka) Our Son Travis Re~incarnated and Little 3.5 Kipper Doodle (He thinks he is more like 35.5 cause he tries to bite my butt each time I get out of the car as he is barking up a storm at me) I couldn't believe how nice the EMPLOYEE'S treated us the entire 2 weeks we stayed and My Dogs were so "WELL BEHAVED" (I'm sure someone traded them for someone else dogs)...lol Daily Breakfast M~F is from 6am-9am and Sat~ Sun hours are 7am~ 10am and consisted of: Biscuits and Gravy, Oatmeal, Waffles,Yogurt, Cereal, Eggs, Toast, Bagels, Muffins,  Orange Juice, Apple Juice Coffee, Tea, Milk, Loved that it is in Walmart's backyard, Kohls, Office Depot, Petco, Kroger, Several Mexican Restaurants to choose from, Uberrito is Fantastic reminds me of a Subway, Sonic, Lowes, Outdoor Pool, My room was comfortable with a Mini Fridge, and Microwave, Dish Network with HBO, Area to walk your Dogs as well as Waste Bags to Clean up after them, The General Manager Mehul Patel along with Employees Kristen, NiNi, &amp; Carla are the main ones I dealt with for the majority of My stay, I honestly cannot say enough "Good Things" about how wonderful I was treated by each and every one of them....even having 3 Small Dogs traveling with me and the best part of all to Me.....NO PER PET FEE....Some places close to here charge a $200 per pet "Non refundable Pet Cleaning fee" which is totally Ridiculous if you ask ME especially considering I CLEAN UP after MY PETS... I would ABSOLUTELY Recommend this Hotel if you are ever in Atascocita/Humble Texas near Fm 1960 E and Atascocita RoadMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r341531575-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -848,9 +1370,6 @@
     <t xml:space="preserve">What a great place. Clean room and property , dog friendly, nice friendly staff,  actual breakfast  in the morning. If your staying in the area , stay here you will enjoy it. I wish all in the chain were managed as good as this one, the only thing that would make it better is if they had a cocktail lounge.  But there are more than a few restaurants and bars within driving or walking distance. </t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r341270292-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -878,6 +1397,45 @@
     <t>No problems,  the rooms were very clean, great breakfast, backs up to shopping area. Plenty of food options around.Friendly staff. Fitness center was clean, though no where to play music, front desk staff helpful and we enjoyed our stay.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r332623723-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>332623723</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>Not what early reviews claimed</t>
+  </si>
+  <si>
+    <t>I have stayed here at this very new immaculately maintained La Quinta several times in the last couple months. I cannot say enough about the comfort of the beds, the spacious walk in showers, the caring and helpful staff, or the professional and involved owner. Recently I asked him about the earlier reviews this hotel received. An almost pained expression briefly appeared and then he went on to explain without specifics that the front desk staff issue was completely resolved and it has ultimately created a very strong team at the hotel. This is a typical but nicer hotel in this class folks. A safe, clean, comfortable place to sleep and relax or work. A warm helpful staff. Everything functions. The rates are great. I would hope to see all the other satisfied guests (and that is all I saw) take a few moments to write about their positive experiences here. It is wrong to continue allowing the lingering comments of rectified issues to harm the rating of this hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>I have stayed here at this very new immaculately maintained La Quinta several times in the last couple months. I cannot say enough about the comfort of the beds, the spacious walk in showers, the caring and helpful staff, or the professional and involved owner. Recently I asked him about the earlier reviews this hotel received. An almost pained expression briefly appeared and then he went on to explain without specifics that the front desk staff issue was completely resolved and it has ultimately created a very strong team at the hotel. This is a typical but nicer hotel in this class folks. A safe, clean, comfortable place to sleep and relax or work. A warm helpful staff. Everything functions. The rates are great. I would hope to see all the other satisfied guests (and that is all I saw) take a few moments to write about their positive experiences here. It is wrong to continue allowing the lingering comments of rectified issues to harm the rating of this hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r330058753-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>330058753</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t>a place to stay for airport</t>
+  </si>
+  <si>
+    <t>it's a nice hotel. we chose this one over the others because it is new versus the the others closer to the airport. the rate was good and only 10 miles to the airport no heavy traffic to deal with. rooms are clean and definitely up to date.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r327679770-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -893,9 +1451,6 @@
     <t>Would have paid 200 a night to have gotten a room by the Houston Airport but they were booked so found this for $83 a night. The place is brand new! Wonderful beds, extremely clean and top notch! A Marriott wouldn't have been better I assure you.It's about 25-35 for a taxi because it is about 10 miles away. A great bbq rib restaurant is next door. It was so perfect for having a cancelled flight and stuck in Houston till the next day.</t>
   </si>
   <si>
-    <t>November 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r290245604-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -932,6 +1487,39 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r282794156-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>282794156</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>New Hotel W/excellent service</t>
+  </si>
+  <si>
+    <t>Being less than a year old, the hotel looks sharp &amp; still has a pleasant new smell. The front desk attendant was extremely helpful &amp; accommodating. We arrived so late that breakfast was over by the time we got up, but based on what we experienced during our short stay, I'd highly recommend giving this one a try.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r270990052-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>270990052</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Terrible Customer Service</t>
+  </si>
+  <si>
+    <t>This property charged me $150 after I cancelled my reservation before the cancellation cut off time. Also, when I called to inquire about the charge I was given the run around and unable to answer any questions regarding this. At one point I was speaking with a front desk person who was VERY rude and hung the phone up on me. I would never recommend anyone to stay here. Customer service should be a priority and clearly here it is not.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r270600566-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -947,9 +1535,6 @@
     <t>When I arrived the front desk told me for 4 nights it would be 488 with a discount from where I work and they charged me over $600. Will never be staying at this resort ever! You would think they would tell you this before charging your card. This is facts not an opinion.</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r269592110-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
   </si>
   <si>
@@ -981,6 +1566,36 @@
   </si>
   <si>
     <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r256534142-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>256534142</t>
+  </si>
+  <si>
+    <t>02/26/2015</t>
+  </si>
+  <si>
+    <t>Honest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room and service was excellent. Also, when I checked out, I left my favorite boots behind. They were retrieved from my room and shipped to my home in Alabama. It has been my experience that if you misplace something the finder keeps it. I'm so greatful for honest employees who go above and beyond. Thank you. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r253877935-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
+  </si>
+  <si>
+    <t>253877935</t>
+  </si>
+  <si>
+    <t>02/12/2015</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>the hotel is wonderful it is brand-new the bathroom was nice and clean the bedroom is nice and clean the breakfast is just as advertised and there is a great barbecue place right next door. They need to work on the hot water though it comes and goes quite a bit.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56010-d7236761-r249147379-La_Quinta_Inn_Suites_Houston_Humble_Atascocita-Humble_Texas.html</t>
@@ -1562,23 +2177,29 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1594,43 +2215,43 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
       <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -1639,13 +2260,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1661,34 +2282,34 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1710,13 +2331,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1732,62 +2353,48 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
+      <c r="X5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
+      <c r="Y5" t="s">
         <v>78</v>
-      </c>
-      <c r="L5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>80</v>
-      </c>
-      <c r="X5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -1803,34 +2410,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1852,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -1874,62 +2481,48 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
         <v>92</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="X7" t="s">
         <v>93</v>
       </c>
-      <c r="J7" t="s">
+      <c r="Y7" t="s">
         <v>94</v>
-      </c>
-      <c r="K7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>88</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
-      <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
-        <v>89</v>
-      </c>
-      <c r="X7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -1945,34 +2538,34 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
         <v>98</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>99</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s">
         <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>103</v>
-      </c>
-      <c r="O8" t="s">
-        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1984,13 +2577,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -2006,7 +2599,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2015,53 +2608,49 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="O9" t="s">
-        <v>113</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
@@ -2077,7 +2666,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2086,25 +2675,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2126,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="X10" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
@@ -2148,7 +2737,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2157,31 +2746,31 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R11" t="n">
         <v>5</v>
@@ -2191,19 +2780,19 @@
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="X11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -2219,7 +2808,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2228,43 +2817,49 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" t="s">
         <v>131</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>132</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="13">
@@ -2280,7 +2875,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2289,49 +2884,53 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -2347,7 +2946,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2356,31 +2955,31 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
         <v>5</v>
@@ -2396,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="X14" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
@@ -2418,7 +3017,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2427,53 +3026,53 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="X15" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
@@ -2489,7 +3088,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2498,39 +3097,53 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>161</v>
+      </c>
+      <c r="X16" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y16" t="s">
         <v>163</v>
-      </c>
-      <c r="O16" t="s">
-        <v>62</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
-      <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="17">
@@ -2546,7 +3159,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2555,31 +3168,31 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="O17" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>5</v>
@@ -2594,10 +3207,14 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>161</v>
+      </c>
+      <c r="X17" t="s">
+        <v>162</v>
+      </c>
       <c r="Y17" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
@@ -2613,7 +3230,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2622,49 +3239,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" t="s">
+        <v>100</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>176</v>
+      </c>
+      <c r="X18" t="s">
         <v>177</v>
       </c>
-      <c r="O18" t="s">
-        <v>121</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
-      <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>2</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
@@ -2680,56 +3291,60 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" t="s">
         <v>183</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" t="s">
         <v>184</v>
       </c>
-      <c r="J19" t="s">
-        <v>185</v>
-      </c>
-      <c r="K19" t="s">
-        <v>186</v>
-      </c>
-      <c r="L19" t="s">
-        <v>187</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>177</v>
-      </c>
-      <c r="O19" t="s">
-        <v>188</v>
-      </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>185</v>
+      </c>
+      <c r="X19" t="s">
+        <v>186</v>
+      </c>
       <c r="Y19" t="s">
         <v>187</v>
       </c>
@@ -2747,34 +3362,34 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
         <v>189</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s">
         <v>190</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>191</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" t="s">
         <v>192</v>
-      </c>
-      <c r="L20" t="s">
-        <v>193</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>194</v>
-      </c>
-      <c r="O20" t="s">
-        <v>121</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2795,10 +3410,14 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>193</v>
+      </c>
+      <c r="X20" t="s">
+        <v>194</v>
+      </c>
       <c r="Y20" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
@@ -2814,7 +3433,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2823,49 +3442,51 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J21" t="s">
-        <v>197</v>
-      </c>
-      <c r="K21" t="s">
         <v>198</v>
       </c>
+      <c r="K21" t="s"/>
       <c r="L21" t="s">
         <v>199</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="O21" t="s">
         <v>53</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>200</v>
+      </c>
+      <c r="X21" t="s">
+        <v>201</v>
+      </c>
       <c r="Y21" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
@@ -2881,7 +3502,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2890,28 +3511,28 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="O22" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
         <v>5</v>
@@ -2924,15 +3545,19 @@
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>208</v>
+      </c>
+      <c r="X22" t="s">
+        <v>209</v>
+      </c>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
@@ -2948,7 +3573,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2957,43 +3582,53 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="X23" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Y23" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
@@ -3009,7 +3644,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3018,49 +3653,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J24" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" t="s">
+        <v>224</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>175</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
         <v>217</v>
       </c>
-      <c r="L24" t="s">
+      <c r="X24" t="s">
         <v>218</v>
       </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>219</v>
-      </c>
-      <c r="O24" t="s">
-        <v>62</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
-      <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25">
@@ -3076,7 +3705,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3085,39 +3714,49 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>232</v>
+      </c>
+      <c r="X25" t="s">
+        <v>233</v>
+      </c>
       <c r="Y25" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26">
@@ -3133,7 +3772,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3142,29 +3781,27 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="J26" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s"/>
-      <c r="L26" t="s">
-        <v>229</v>
-      </c>
+      <c r="L26" t="s"/>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="O26" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R26" t="n">
         <v>5</v>
@@ -3174,20 +3811,14 @@
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>231</v>
-      </c>
-      <c r="X26" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>233</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3202,7 +3833,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3211,32 +3842,38 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="J27" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K27" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>4</v>
@@ -3244,14 +3881,10 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>231</v>
-      </c>
-      <c r="X27" t="s">
-        <v>232</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
@@ -3267,7 +3900,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3276,45 +3909,53 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="J28" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q28" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
       <c r="R28" t="n">
         <v>5</v>
       </c>
-      <c r="S28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>251</v>
+      </c>
+      <c r="X28" t="s">
+        <v>252</v>
+      </c>
       <c r="Y28" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29">
@@ -3330,7 +3971,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3339,32 +3980,38 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="J29" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>259</v>
+      </c>
+      <c r="O29" t="s">
+        <v>100</v>
+      </c>
+      <c r="P29" t="n">
         <v>2</v>
       </c>
-      <c r="N29" t="s">
-        <v>251</v>
-      </c>
-      <c r="O29" t="s">
-        <v>113</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
       <c r="R29" t="n">
         <v>3</v>
       </c>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>1</v>
@@ -3373,13 +4020,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="X29" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Y29" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30">
@@ -3395,7 +4042,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3404,43 +4051,39 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="J30" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="K30" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s">
+        <v>267</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
         <v>259</v>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s">
-        <v>260</v>
-      </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>1</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31">
@@ -3456,7 +4099,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3465,49 +4108,49 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="J31" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K31" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L31" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="O31" t="s">
         <v>53</v>
       </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
       <c r="R31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>268</v>
-      </c>
-      <c r="X31" t="s">
-        <v>269</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32">
@@ -3523,7 +4166,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3532,39 +4175,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J32" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
-      </c>
-      <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33">
@@ -3580,7 +4233,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3589,39 +4242,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J33" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K33" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34">
@@ -3637,7 +4300,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3646,39 +4309,49 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J34" t="s">
+        <v>287</v>
+      </c>
+      <c r="K34" t="s">
+        <v>288</v>
+      </c>
+      <c r="L34" t="s">
+        <v>289</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
         <v>284</v>
       </c>
-      <c r="K34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L34" t="s">
-        <v>285</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>276</v>
-      </c>
       <c r="O34" t="s">
-        <v>62</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35">
@@ -3694,7 +4367,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3703,25 +4376,25 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J35" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K35" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="O35" t="s">
-        <v>113</v>
+        <v>295</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3729,8 +4402,12 @@
       <c r="Q35" t="n">
         <v>5</v>
       </c>
-      <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -3741,7 +4418,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36">
@@ -3757,7 +4434,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3766,39 +4443,49 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="J36" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K36" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37">
@@ -3814,7 +4501,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3823,31 +4510,35 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="J37" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K37" t="s">
+        <v>305</v>
+      </c>
+      <c r="L37" t="s">
+        <v>306</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
         <v>301</v>
       </c>
-      <c r="L37" t="s">
-        <v>302</v>
-      </c>
-      <c r="M37" t="n">
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
         <v>4</v>
       </c>
-      <c r="N37" t="s">
-        <v>303</v>
-      </c>
-      <c r="O37" t="s">
-        <v>62</v>
-      </c>
-      <c r="P37" t="s"/>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="s"/>
       <c r="S37" t="n">
         <v>5</v>
       </c>
@@ -3861,7 +4552,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38">
@@ -3877,7 +4568,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3886,39 +4577,49 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="J38" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K38" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L38" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="O38" t="s">
-        <v>121</v>
-      </c>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39">
@@ -3934,7 +4635,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3943,39 +4644,49 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J39" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K39" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="O39" t="s">
-        <v>62</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40">
@@ -3991,7 +4702,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4000,39 +4711,49 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J40" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K40" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L40" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="O40" t="s">
-        <v>121</v>
-      </c>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
-      <c r="S40" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41">
@@ -4048,7 +4769,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4057,28 +4778,32 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J41" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K41" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O41" t="s">
-        <v>121</v>
-      </c>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
+        <v>184</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
       <c r="R41" t="n">
         <v>5</v>
       </c>
@@ -4095,7 +4820,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42">
@@ -4111,40 +4836,44 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>328</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>329</v>
+      </c>
+      <c r="J42" t="s">
+        <v>330</v>
+      </c>
+      <c r="K42" t="s">
+        <v>331</v>
+      </c>
+      <c r="L42" t="s">
+        <v>332</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
         <v>327</v>
       </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
-        <v>328</v>
-      </c>
-      <c r="J42" t="s">
-        <v>329</v>
-      </c>
-      <c r="K42" t="s">
-        <v>330</v>
-      </c>
-      <c r="L42" t="s">
-        <v>331</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s">
-        <v>332</v>
-      </c>
       <c r="O42" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
       </c>
-      <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
       <c r="S42" t="n">
         <v>5</v>
       </c>
@@ -4161,6 +4890,1968 @@
         <v>333</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>334</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>335</v>
+      </c>
+      <c r="J43" t="s">
+        <v>336</v>
+      </c>
+      <c r="K43" t="s">
+        <v>337</v>
+      </c>
+      <c r="L43" t="s">
+        <v>338</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>327</v>
+      </c>
+      <c r="O43" t="s">
+        <v>100</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>339</v>
+      </c>
+      <c r="X43" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>342</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>343</v>
+      </c>
+      <c r="J44" t="s">
+        <v>344</v>
+      </c>
+      <c r="K44" t="s">
+        <v>345</v>
+      </c>
+      <c r="L44" t="s">
+        <v>346</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>347</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>348</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>349</v>
+      </c>
+      <c r="J45" t="s">
+        <v>350</v>
+      </c>
+      <c r="K45" t="s">
+        <v>351</v>
+      </c>
+      <c r="L45" t="s">
+        <v>352</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>353</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>354</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>355</v>
+      </c>
+      <c r="J46" t="s">
+        <v>356</v>
+      </c>
+      <c r="K46" t="s">
+        <v>357</v>
+      </c>
+      <c r="L46" t="s">
+        <v>358</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>359</v>
+      </c>
+      <c r="O46" t="s">
+        <v>184</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>361</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>362</v>
+      </c>
+      <c r="J47" t="s">
+        <v>363</v>
+      </c>
+      <c r="K47" t="s">
+        <v>364</v>
+      </c>
+      <c r="L47" t="s">
+        <v>365</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>366</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>367</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>368</v>
+      </c>
+      <c r="J48" t="s">
+        <v>369</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s">
+        <v>199</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>366</v>
+      </c>
+      <c r="O48" t="s">
+        <v>184</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>370</v>
+      </c>
+      <c r="X48" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>372</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>373</v>
+      </c>
+      <c r="J49" t="s">
+        <v>374</v>
+      </c>
+      <c r="K49" t="s">
+        <v>375</v>
+      </c>
+      <c r="L49" t="s">
+        <v>376</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>377</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>370</v>
+      </c>
+      <c r="X49" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>379</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>380</v>
+      </c>
+      <c r="J50" t="s">
+        <v>381</v>
+      </c>
+      <c r="K50" t="s">
+        <v>382</v>
+      </c>
+      <c r="L50" t="s">
+        <v>383</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>377</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>384</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>385</v>
+      </c>
+      <c r="J51" t="s">
+        <v>386</v>
+      </c>
+      <c r="K51" t="s">
+        <v>387</v>
+      </c>
+      <c r="L51" t="s">
+        <v>388</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>377</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>389</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>390</v>
+      </c>
+      <c r="J52" t="s">
+        <v>391</v>
+      </c>
+      <c r="K52" t="s">
+        <v>392</v>
+      </c>
+      <c r="L52" t="s">
+        <v>393</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>394</v>
+      </c>
+      <c r="O52" t="s">
+        <v>100</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>395</v>
+      </c>
+      <c r="X52" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>398</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>399</v>
+      </c>
+      <c r="J53" t="s">
+        <v>400</v>
+      </c>
+      <c r="K53" t="s">
+        <v>401</v>
+      </c>
+      <c r="L53" t="s">
+        <v>402</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>403</v>
+      </c>
+      <c r="O53" t="s">
+        <v>184</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>404</v>
+      </c>
+      <c r="X53" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>407</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>408</v>
+      </c>
+      <c r="J54" t="s">
+        <v>409</v>
+      </c>
+      <c r="K54" t="s">
+        <v>410</v>
+      </c>
+      <c r="L54" t="s">
+        <v>411</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>412</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>414</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>415</v>
+      </c>
+      <c r="J55" t="s">
+        <v>416</v>
+      </c>
+      <c r="K55" t="s">
+        <v>417</v>
+      </c>
+      <c r="L55" t="s">
+        <v>418</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>419</v>
+      </c>
+      <c r="O55" t="s">
+        <v>100</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>420</v>
+      </c>
+      <c r="X55" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>423</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>424</v>
+      </c>
+      <c r="J56" t="s">
+        <v>425</v>
+      </c>
+      <c r="K56" t="s">
+        <v>426</v>
+      </c>
+      <c r="L56" t="s">
+        <v>427</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>428</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>429</v>
+      </c>
+      <c r="X56" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>432</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>433</v>
+      </c>
+      <c r="J57" t="s">
+        <v>434</v>
+      </c>
+      <c r="K57" t="s">
+        <v>435</v>
+      </c>
+      <c r="L57" t="s">
+        <v>436</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>437</v>
+      </c>
+      <c r="O57" t="s">
+        <v>192</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>438</v>
+      </c>
+      <c r="X57" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>441</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>442</v>
+      </c>
+      <c r="J58" t="s">
+        <v>443</v>
+      </c>
+      <c r="K58" t="s">
+        <v>444</v>
+      </c>
+      <c r="L58" t="s">
+        <v>445</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>437</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>446</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>447</v>
+      </c>
+      <c r="J59" t="s">
+        <v>448</v>
+      </c>
+      <c r="K59" t="s">
+        <v>449</v>
+      </c>
+      <c r="L59" t="s">
+        <v>450</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>437</v>
+      </c>
+      <c r="O59" t="s">
+        <v>100</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>451</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>452</v>
+      </c>
+      <c r="J60" t="s">
+        <v>453</v>
+      </c>
+      <c r="K60" t="s">
+        <v>111</v>
+      </c>
+      <c r="L60" t="s">
+        <v>454</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>437</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>455</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>456</v>
+      </c>
+      <c r="J61" t="s">
+        <v>457</v>
+      </c>
+      <c r="K61" t="s">
+        <v>458</v>
+      </c>
+      <c r="L61" t="s">
+        <v>459</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>460</v>
+      </c>
+      <c r="O61" t="s">
+        <v>100</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>462</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>463</v>
+      </c>
+      <c r="J62" t="s">
+        <v>464</v>
+      </c>
+      <c r="K62" t="s">
+        <v>465</v>
+      </c>
+      <c r="L62" t="s">
+        <v>466</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>467</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>468</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>469</v>
+      </c>
+      <c r="J63" t="s">
+        <v>470</v>
+      </c>
+      <c r="K63" t="s">
+        <v>471</v>
+      </c>
+      <c r="L63" t="s">
+        <v>472</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>467</v>
+      </c>
+      <c r="O63" t="s">
+        <v>184</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>473</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>474</v>
+      </c>
+      <c r="J64" t="s">
+        <v>475</v>
+      </c>
+      <c r="K64" t="s">
+        <v>476</v>
+      </c>
+      <c r="L64" t="s">
+        <v>477</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>478</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>479</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>480</v>
+      </c>
+      <c r="J65" t="s">
+        <v>481</v>
+      </c>
+      <c r="K65" t="s">
+        <v>482</v>
+      </c>
+      <c r="L65" t="s">
+        <v>483</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>484</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>485</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>486</v>
+      </c>
+      <c r="J66" t="s">
+        <v>487</v>
+      </c>
+      <c r="K66" t="s">
+        <v>488</v>
+      </c>
+      <c r="L66" t="s">
+        <v>489</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>484</v>
+      </c>
+      <c r="O66" t="s">
+        <v>100</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>490</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>491</v>
+      </c>
+      <c r="J67" t="s">
+        <v>492</v>
+      </c>
+      <c r="K67" t="s">
+        <v>493</v>
+      </c>
+      <c r="L67" t="s">
+        <v>494</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>495</v>
+      </c>
+      <c r="O67" t="s">
+        <v>100</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>496</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>497</v>
+      </c>
+      <c r="J68" t="s">
+        <v>498</v>
+      </c>
+      <c r="K68" t="s">
+        <v>499</v>
+      </c>
+      <c r="L68" t="s">
+        <v>500</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>495</v>
+      </c>
+      <c r="O68" t="s">
+        <v>192</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>501</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>502</v>
+      </c>
+      <c r="J69" t="s">
+        <v>503</v>
+      </c>
+      <c r="K69" t="s">
+        <v>504</v>
+      </c>
+      <c r="L69" t="s">
+        <v>505</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>495</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>506</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>507</v>
+      </c>
+      <c r="J70" t="s">
+        <v>508</v>
+      </c>
+      <c r="K70" t="s">
+        <v>509</v>
+      </c>
+      <c r="L70" t="s">
+        <v>510</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>511</v>
+      </c>
+      <c r="O70" t="s">
+        <v>192</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>512</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>513</v>
+      </c>
+      <c r="J71" t="s">
+        <v>514</v>
+      </c>
+      <c r="K71" t="s">
+        <v>515</v>
+      </c>
+      <c r="L71" t="s">
+        <v>516</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>517</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>518</v>
+      </c>
+      <c r="J72" t="s">
+        <v>519</v>
+      </c>
+      <c r="K72" t="s">
+        <v>520</v>
+      </c>
+      <c r="L72" t="s">
+        <v>521</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>522</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>523</v>
+      </c>
+      <c r="J73" t="s">
+        <v>524</v>
+      </c>
+      <c r="K73" t="s">
+        <v>525</v>
+      </c>
+      <c r="L73" t="s">
+        <v>526</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>527</v>
+      </c>
+      <c r="O73" t="s">
+        <v>192</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>63786</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>528</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>529</v>
+      </c>
+      <c r="J74" t="s">
+        <v>530</v>
+      </c>
+      <c r="K74" t="s">
+        <v>531</v>
+      </c>
+      <c r="L74" t="s">
+        <v>532</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>533</v>
+      </c>
+      <c r="O74" t="s">
+        <v>184</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>534</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>